--- a/Team-Data/2007-08/12-29-2007-08.xlsx
+++ b/Team-Data/2007-08/12-29-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.536</v>
+        <v>0.556</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O2" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U2" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.6</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -786,40 +853,40 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
         <v>20</v>
       </c>
       <c r="AU2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>16</v>
       </c>
       <c r="BA2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.893</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -866,22 +933,22 @@
         <v>35.5</v>
       </c>
       <c r="J3" t="n">
-        <v>75.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M3" t="n">
         <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.397</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P3" t="n">
         <v>27.9</v>
@@ -890,10 +957,10 @@
         <v>0.772</v>
       </c>
       <c r="R3" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
         <v>41.7</v>
@@ -902,16 +969,16 @@
         <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -920,13 +987,13 @@
         <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -974,31 +1041,31 @@
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>0.357</v>
+        <v>0.37</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,16 +1115,16 @@
         <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L4" t="n">
         <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N4" t="n">
         <v>0.367</v>
@@ -1066,22 +1133,22 @@
         <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S4" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T4" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
         <v>16</v>
@@ -1090,55 +1157,55 @@
         <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG4" t="n">
         <v>23</v>
       </c>
-      <c r="AG4" t="n">
-        <v>24</v>
-      </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>20</v>
@@ -1150,7 +1217,7 @@
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
@@ -1165,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="AW4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
@@ -1308,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>25</v>
@@ -1335,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>14</v>
@@ -1356,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>19</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.452</v>
+        <v>0.467</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L6" t="n">
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="O6" t="n">
         <v>18.6</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18.2</v>
-      </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD6" t="n">
         <v>3</v>
       </c>
       <c r="AE6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF6" t="n">
         <v>18</v>
       </c>
-      <c r="AF6" t="n">
-        <v>20</v>
-      </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1493,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1502,25 +1569,25 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
@@ -1529,22 +1596,22 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -1576,88 +1643,88 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.645</v>
+        <v>0.633</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="K7" t="n">
         <v>0.466</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="P7" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.828</v>
+        <v>0.831</v>
       </c>
       <c r="R7" t="n">
         <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1672,58 +1739,58 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
         <v>5</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>2</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>19</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,13 +1924,13 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1878,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.767</v>
+        <v>0.759</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J9" t="n">
-        <v>79.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L9" t="n">
         <v>5.6</v>
@@ -1970,43 +2037,43 @@
         <v>15.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O9" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y9" t="n">
         <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA9" t="n">
         <v>20.7</v>
@@ -2015,10 +2082,10 @@
         <v>99.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2048,22 +2115,22 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>24</v>
@@ -2078,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2263,13 +2330,13 @@
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>25</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.483</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J11" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L11" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.339</v>
+        <v>0.334</v>
       </c>
       <c r="O11" t="n">
         <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.724</v>
+        <v>0.719</v>
       </c>
       <c r="R11" t="n">
         <v>12.7</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
         <v>21</v>
@@ -2370,34 +2437,34 @@
         <v>4.8</v>
       </c>
       <c r="Z11" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AA11" t="n">
         <v>20.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>20.3</v>
-      </c>
       <c r="AB11" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
@@ -2421,13 +2488,13 @@
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2448,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="J12" t="n">
-        <v>86.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.445</v>
@@ -2513,10 +2580,10 @@
         <v>8.1</v>
       </c>
       <c r="M12" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O12" t="n">
         <v>18.6</v>
@@ -2525,10 +2592,10 @@
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
         <v>32.5</v>
@@ -2537,16 +2604,16 @@
         <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
@@ -2558,10 +2625,10 @@
         <v>22.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>104</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2570,10 +2637,10 @@
         <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2585,19 +2652,19 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2615,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2776,13 +2843,13 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2791,16 +2858,16 @@
         <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2958,19 +3025,19 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -2979,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -3110,31 +3177,31 @@
         <v>-4.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3155,22 +3222,22 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.258</v>
+        <v>0.267</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M16" t="n">
         <v>13.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.332</v>
+        <v>0.328</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P16" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.702</v>
+        <v>0.704</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
@@ -3265,37 +3332,37 @@
         <v>39.5</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>7.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.3</v>
+        <v>-4.7</v>
       </c>
       <c r="AD16" t="n">
         <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>29</v>
@@ -3307,13 +3374,13 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,16 +3389,16 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>28</v>
@@ -3343,31 +3410,31 @@
         <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
         <v>12</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.379</v>
+        <v>0.393</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J17" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.452</v>
       </c>
       <c r="L17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X17" t="n">
         <v>4.8</v>
@@ -3465,31 +3532,31 @@
         <v>21.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>14</v>
@@ -3507,7 +3574,7 @@
         <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3516,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
@@ -3528,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3537,7 +3604,7 @@
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -3546,10 +3613,10 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.138</v>
+        <v>0.143</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,67 +3663,67 @@
         <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.7</v>
+        <v>83.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
         <v>5.9</v>
       </c>
       <c r="M18" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
         <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.72</v>
+        <v>0.726</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="W18" t="n">
         <v>7.4</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,13 +3747,13 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,31 +3762,31 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.467</v>
+        <v>0.448</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="J19" t="n">
-        <v>76.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.431</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.317</v>
+        <v>0.32</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="P19" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.737</v>
+        <v>0.742</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T19" t="n">
         <v>41.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="V19" t="n">
         <v>16.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3826,28 +3893,28 @@
         <v>3.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA19" t="n">
         <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
         <v>18</v>
       </c>
-      <c r="AF19" t="n">
-        <v>16</v>
-      </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>4</v>
@@ -3859,49 +3926,49 @@
         <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>22</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3913,7 +3980,7 @@
         <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -3942,88 +4009,88 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
         <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="O20" t="n">
         <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
         <v>4.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
         <v>19.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4035,13 +4102,13 @@
         <v>4</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4071,10 +4138,10 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4095,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4229,19 +4296,19 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
         <v>2</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
@@ -4268,13 +4335,13 @@
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.656</v>
+        <v>0.645</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4327,52 +4394,52 @@
         <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M22" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="N22" t="n">
         <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="Q22" t="n">
         <v>0.713</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
         <v>43.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
         <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
         <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA22" t="n">
         <v>24.2</v>
@@ -4381,31 +4448,31 @@
         <v>103.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
         <v>7</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
@@ -4447,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>13</v>
@@ -4456,7 +4523,7 @@
         <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-0.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4587,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4596,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
@@ -4617,22 +4684,22 @@
         <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>22</v>
@@ -4641,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4775,13 +4842,13 @@
         <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN24" t="n">
         <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
@@ -4811,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4945,16 +5012,16 @@
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>20</v>
@@ -4972,10 +5039,10 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -5002,10 +5069,10 @@
         <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>24</v>
@@ -5136,7 +5203,7 @@
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>21</v>
@@ -5148,10 +5215,10 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
         <v>24</v>
@@ -5184,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5309,7 +5376,7 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
         <v>20</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5342,10 +5409,10 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -5398,103 +5465,103 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>0.276</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.442</v>
+        <v>0.439</v>
       </c>
       <c r="L28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M28" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="O28" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P28" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.774</v>
       </c>
       <c r="R28" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U28" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V28" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.1</v>
+        <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
         <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>16</v>
@@ -5515,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>15</v>
@@ -5527,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -5580,82 +5647,82 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J29" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K29" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M29" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="O29" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P29" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="S29" t="n">
         <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V29" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AD29" t="n">
         <v>3</v>
@@ -5664,10 +5731,10 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -5676,13 +5743,13 @@
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5706,34 +5773,34 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.516</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,64 +5847,64 @@
         <v>39.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.488</v>
+        <v>0.486</v>
       </c>
       <c r="L30" t="n">
         <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="P30" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R30" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S30" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
         <v>25.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,10 +5913,10 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5876,31 +5943,31 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AY30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.517</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.451</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
@@ -5974,76 +6041,76 @@
         <v>19</v>
       </c>
       <c r="N31" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="S31" t="n">
         <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="U31" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>19.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
         <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>12</v>
@@ -6052,19 +6119,19 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
         <v>13</v>
@@ -6073,31 +6140,31 @@
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-29-2007-08</t>
+          <t>2007-12-29</t>
         </is>
       </c>
     </row>
